--- a/com.synet.tool.rsc/test/excel/caihong/装置板卡端口.xlsx
+++ b/com.synet.tool.rsc/test/excel/caihong/装置板卡端口.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ws-tools\RS5000\com.synet.tool.rsc\test\excel\caihong\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\Documents\需求\RS-5000\DBModel\Excel\光缆\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{805BF819-F71C-4449-A993-E02E0352CCB0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33FB22E2-0A7E-4EEC-A71A-0DDD869683A8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="276" windowWidth="14940" windowHeight="9156" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="104">
   <si>
     <t>合同号</t>
   </si>
@@ -257,25 +257,6 @@
   </si>
   <si>
     <t>8</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>SHR</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>1.00</t>
@@ -298,11 +279,81 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>端口数</t>
+    <t>南瑞继保</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>PRS-778T2-DA-G</t>
+    <t>PCS-222B</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>国电南自</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PSMU</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>端口</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>X1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>X2</t>
+  </si>
+  <si>
+    <t>X3</t>
+  </si>
+  <si>
+    <t>X4</t>
+  </si>
+  <si>
+    <t>X5</t>
+  </si>
+  <si>
+    <t>X6</t>
+  </si>
+  <si>
+    <t>X7</t>
+  </si>
+  <si>
+    <t>X8</t>
+  </si>
+  <si>
+    <t>N01X1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>N01X2</t>
+  </si>
+  <si>
+    <t>N01X3</t>
+  </si>
+  <si>
+    <t>N01X4</t>
+  </si>
+  <si>
+    <t>N01X5</t>
+  </si>
+  <si>
+    <t>N01X6</t>
+  </si>
+  <si>
+    <t>N01X7</t>
+  </si>
+  <si>
+    <t>N01X8</t>
+  </si>
+  <si>
+    <t>TR1,TR2,TR3</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -310,7 +361,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -335,6 +386,12 @@
     <font>
       <sz val="11"/>
       <color indexed="8"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -417,7 +474,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -427,6 +484,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -448,6 +508,12 @@
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -763,10 +829,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AI9"/>
+  <dimension ref="A1:AI17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AI12" activeCellId="1" sqref="AI4 AI12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -835,7 +901,7 @@
         <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>13</v>
@@ -898,96 +964,96 @@
         <v>32</v>
       </c>
       <c r="AI1" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:35" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E2" s="4" t="s">
+      <c r="D2" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="G2" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="L2" s="4" t="s">
+      <c r="G2" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="L2" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="M2" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="N2" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="P2" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q2" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="R2" s="4" t="s">
+      <c r="M2" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="N2" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="R2" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="S2" s="4" t="s">
+      <c r="S2" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="T2" s="4" t="s">
+      <c r="T2" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="U2" s="4" t="s">
+      <c r="U2" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="V2" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="W2" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="X2" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y2" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="Z2" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA2" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="AB2" s="4" t="s">
+      <c r="V2" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="W2" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="X2" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y2" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z2" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA2" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB2" s="5" t="s">
         <v>78</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AD2" s="2" t="s">
         <v>44</v>
@@ -1004,91 +1070,89 @@
       <c r="AH2" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="AI2" s="2">
-        <v>0</v>
-      </c>
+      <c r="AI2" s="2"/>
     </row>
     <row r="3" spans="1:35" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E3" s="4" t="s">
+      <c r="D3" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="G3" s="6"/>
-      <c r="H3" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="J3" s="6"/>
-      <c r="K3" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="L3" s="4" t="s">
+      <c r="G3" s="7"/>
+      <c r="H3" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="J3" s="7"/>
+      <c r="K3" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="L3" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="M3" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="N3" s="9"/>
-      <c r="O3" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="P3" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q3" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="R3" s="4" t="s">
+      <c r="M3" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="N3" s="10"/>
+      <c r="O3" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="P3" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q3" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="R3" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="S3" s="4" t="s">
+      <c r="S3" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="T3" s="4" t="s">
+      <c r="T3" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="U3" s="4" t="s">
+      <c r="U3" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="V3" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="W3" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="X3" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y3" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="Z3" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA3" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="AB3" s="4" t="s">
+      <c r="V3" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="W3" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="X3" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y3" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z3" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA3" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB3" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="AC3" s="2" t="s">
-        <v>79</v>
+      <c r="AC3" s="4" t="s">
+        <v>88</v>
       </c>
       <c r="AD3" s="2" t="s">
         <v>49</v>
@@ -1105,91 +1169,89 @@
       <c r="AH3" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="AI3" s="2">
-        <v>0</v>
-      </c>
+      <c r="AI3" s="2"/>
     </row>
     <row r="4" spans="1:35" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E4" s="4" t="s">
+      <c r="D4" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="G4" s="6"/>
-      <c r="H4" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="J4" s="6"/>
-      <c r="K4" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="L4" s="4" t="s">
+      <c r="G4" s="7"/>
+      <c r="H4" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="J4" s="7"/>
+      <c r="K4" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="L4" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="M4" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="N4" s="9"/>
-      <c r="O4" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="P4" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q4" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="R4" s="4" t="s">
+      <c r="M4" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="N4" s="10"/>
+      <c r="O4" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="P4" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q4" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="R4" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="S4" s="4" t="s">
+      <c r="S4" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="T4" s="4" t="s">
+      <c r="T4" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="U4" s="4" t="s">
+      <c r="U4" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="V4" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="W4" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="X4" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y4" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="Z4" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA4" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="AB4" s="4" t="s">
+      <c r="V4" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="W4" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="X4" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y4" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z4" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA4" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB4" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="AC4" s="2" t="s">
-        <v>80</v>
+      <c r="AC4" s="4" t="s">
+        <v>89</v>
       </c>
       <c r="AD4" s="2" t="s">
         <v>54</v>
@@ -1206,91 +1268,91 @@
       <c r="AH4" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="AI4" s="2">
-        <v>3</v>
+      <c r="AI4" s="2" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:35" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E5" s="4" t="s">
+      <c r="D5" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="G5" s="6"/>
-      <c r="H5" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="J5" s="6"/>
-      <c r="K5" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="L5" s="4" t="s">
+      <c r="G5" s="7"/>
+      <c r="H5" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="J5" s="7"/>
+      <c r="K5" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="L5" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="M5" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="N5" s="9"/>
-      <c r="O5" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="P5" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q5" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="R5" s="4" t="s">
+      <c r="M5" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="N5" s="10"/>
+      <c r="O5" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="P5" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q5" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="R5" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="S5" s="4" t="s">
+      <c r="S5" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="T5" s="4" t="s">
+      <c r="T5" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="U5" s="4" t="s">
+      <c r="U5" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="V5" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="W5" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="X5" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y5" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="Z5" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA5" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="AB5" s="4" t="s">
+      <c r="V5" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="W5" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="X5" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y5" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z5" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA5" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB5" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="AC5" s="2" t="s">
-        <v>81</v>
+      <c r="AC5" s="4" t="s">
+        <v>90</v>
       </c>
       <c r="AD5" s="2" t="s">
         <v>58</v>
@@ -1307,91 +1369,89 @@
       <c r="AH5" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="AI5" s="2">
-        <v>8</v>
-      </c>
+      <c r="AI5" s="2"/>
     </row>
     <row r="6" spans="1:35" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E6" s="4" t="s">
+      <c r="D6" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="G6" s="6"/>
-      <c r="H6" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="J6" s="6"/>
-      <c r="K6" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="L6" s="4" t="s">
+      <c r="G6" s="7"/>
+      <c r="H6" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="J6" s="7"/>
+      <c r="K6" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="L6" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="M6" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="N6" s="9"/>
-      <c r="O6" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="P6" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q6" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="R6" s="4" t="s">
+      <c r="M6" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="N6" s="10"/>
+      <c r="O6" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="P6" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q6" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="R6" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="S6" s="4" t="s">
+      <c r="S6" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="T6" s="4" t="s">
+      <c r="T6" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="U6" s="4" t="s">
+      <c r="U6" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="V6" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="W6" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="X6" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y6" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="Z6" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA6" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="AB6" s="4" t="s">
+      <c r="V6" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="W6" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="X6" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y6" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z6" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA6" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB6" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="AC6" s="2" t="s">
-        <v>41</v>
+      <c r="AC6" s="4" t="s">
+        <v>91</v>
       </c>
       <c r="AD6" s="2" t="s">
         <v>62</v>
@@ -1408,91 +1468,89 @@
       <c r="AH6" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="AI6" s="2">
-        <v>8</v>
-      </c>
+      <c r="AI6" s="2"/>
     </row>
     <row r="7" spans="1:35" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E7" s="4" t="s">
+      <c r="D7" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="G7" s="6"/>
-      <c r="H7" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="J7" s="6"/>
-      <c r="K7" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="L7" s="4" t="s">
+      <c r="G7" s="7"/>
+      <c r="H7" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="J7" s="7"/>
+      <c r="K7" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="L7" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="M7" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="N7" s="9"/>
-      <c r="O7" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="P7" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q7" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="R7" s="4" t="s">
+      <c r="M7" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="N7" s="10"/>
+      <c r="O7" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="P7" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q7" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="R7" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="S7" s="4" t="s">
+      <c r="S7" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="T7" s="4" t="s">
+      <c r="T7" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="U7" s="4" t="s">
+      <c r="U7" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="V7" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="W7" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="X7" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y7" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="Z7" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA7" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="AB7" s="4" t="s">
+      <c r="V7" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="W7" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="X7" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y7" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z7" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA7" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB7" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="AC7" s="2" t="s">
-        <v>82</v>
+      <c r="AC7" s="4" t="s">
+        <v>92</v>
       </c>
       <c r="AD7" s="2" t="s">
         <v>65</v>
@@ -1509,91 +1567,89 @@
       <c r="AH7" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="AI7" s="2">
-        <v>0</v>
-      </c>
+      <c r="AI7" s="2"/>
     </row>
     <row r="8" spans="1:35" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E8" s="4" t="s">
+      <c r="D8" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="G8" s="6"/>
-      <c r="H8" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="J8" s="6"/>
-      <c r="K8" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="L8" s="4" t="s">
+      <c r="G8" s="7"/>
+      <c r="H8" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="J8" s="7"/>
+      <c r="K8" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="L8" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="M8" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="N8" s="9"/>
-      <c r="O8" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="P8" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q8" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="R8" s="4" t="s">
+      <c r="M8" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="N8" s="10"/>
+      <c r="O8" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="P8" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q8" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="R8" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="S8" s="4" t="s">
+      <c r="S8" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="T8" s="4" t="s">
+      <c r="T8" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="U8" s="4" t="s">
+      <c r="U8" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="V8" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="W8" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="X8" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y8" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="Z8" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA8" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="AB8" s="4" t="s">
+      <c r="V8" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="W8" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="X8" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y8" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z8" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA8" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB8" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="AC8" s="2" t="s">
-        <v>83</v>
+      <c r="AC8" s="4" t="s">
+        <v>93</v>
       </c>
       <c r="AD8" s="2" t="s">
         <v>69</v>
@@ -1610,91 +1666,89 @@
       <c r="AH8" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="AI8" s="2">
-        <v>0</v>
-      </c>
+      <c r="AI8" s="2"/>
     </row>
     <row r="9" spans="1:35" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E9" s="4" t="s">
+      <c r="D9" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="G9" s="7"/>
-      <c r="H9" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="J9" s="7"/>
-      <c r="K9" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="L9" s="4" t="s">
+      <c r="G9" s="8"/>
+      <c r="H9" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="J9" s="8"/>
+      <c r="K9" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="L9" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="M9" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="N9" s="10"/>
-      <c r="O9" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="P9" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q9" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="R9" s="4" t="s">
+      <c r="M9" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="N9" s="11"/>
+      <c r="O9" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="P9" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q9" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="R9" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="S9" s="4" t="s">
+      <c r="S9" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="T9" s="4" t="s">
+      <c r="T9" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="U9" s="4" t="s">
+      <c r="U9" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="V9" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="W9" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="X9" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y9" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="Z9" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA9" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="AB9" s="4" t="s">
+      <c r="V9" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="W9" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="X9" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y9" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z9" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA9" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB9" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="AC9" s="2" t="s">
-        <v>78</v>
+      <c r="AC9" s="4" t="s">
+        <v>94</v>
       </c>
       <c r="AD9" s="2" t="s">
         <v>73</v>
@@ -1711,12 +1765,838 @@
       <c r="AH9" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="AI9" s="2">
-        <v>0</v>
-      </c>
+      <c r="AI9" s="2"/>
+    </row>
+    <row r="10" spans="1:35" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="M10" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="N10" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="O10" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="P10" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q10" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="R10" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="S10" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="T10" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="U10" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="V10" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="W10" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="X10" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y10" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z10" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA10" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB10" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC10" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="AD10" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE10" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF10" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG10" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH10" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AI10" s="4"/>
+    </row>
+    <row r="11" spans="1:35" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G11" s="7"/>
+      <c r="H11" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="J11" s="7"/>
+      <c r="K11" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="M11" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="N11" s="10"/>
+      <c r="O11" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="P11" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q11" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="R11" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="S11" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="T11" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="U11" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="V11" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="W11" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="X11" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y11" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z11" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA11" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB11" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC11" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD11" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE11" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="AF11" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="AG11" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="AH11" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI11" s="4"/>
+    </row>
+    <row r="12" spans="1:35" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G12" s="7"/>
+      <c r="H12" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="J12" s="7"/>
+      <c r="K12" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="L12" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="M12" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="N12" s="10"/>
+      <c r="O12" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="P12" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q12" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="R12" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="S12" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="T12" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="U12" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="V12" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="W12" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="X12" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y12" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z12" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA12" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB12" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC12" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="AD12" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE12" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF12" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG12" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH12" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI12" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="13" spans="1:35" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G13" s="7"/>
+      <c r="H13" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="J13" s="7"/>
+      <c r="K13" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="L13" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="M13" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="N13" s="10"/>
+      <c r="O13" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="P13" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q13" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="R13" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="S13" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="T13" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="U13" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="V13" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="W13" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="X13" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y13" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z13" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA13" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB13" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC13" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="AD13" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE13" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="AF13" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG13" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="AH13" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="AI13" s="4"/>
+    </row>
+    <row r="14" spans="1:35" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G14" s="7"/>
+      <c r="H14" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="J14" s="7"/>
+      <c r="K14" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="L14" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="M14" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="N14" s="10"/>
+      <c r="O14" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="P14" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q14" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="R14" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="S14" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="T14" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="U14" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="V14" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="W14" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="X14" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y14" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z14" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA14" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB14" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC14" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="AD14" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE14" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="AF14" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG14" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="AH14" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="AI14" s="4"/>
+    </row>
+    <row r="15" spans="1:35" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G15" s="7"/>
+      <c r="H15" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="J15" s="7"/>
+      <c r="K15" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="L15" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="M15" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="N15" s="10"/>
+      <c r="O15" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="P15" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q15" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="R15" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="S15" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="T15" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="U15" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="V15" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="W15" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="X15" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y15" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z15" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA15" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB15" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC15" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="AD15" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="AE15" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF15" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG15" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="AH15" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI15" s="4"/>
+    </row>
+    <row r="16" spans="1:35" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G16" s="7"/>
+      <c r="H16" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="J16" s="7"/>
+      <c r="K16" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="L16" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="M16" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="N16" s="10"/>
+      <c r="O16" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="P16" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q16" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="R16" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="S16" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="T16" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="U16" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="V16" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="W16" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="X16" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y16" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z16" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA16" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB16" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC16" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="AD16" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="AE16" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF16" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="AG16" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AH16" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="AI16" s="4"/>
+    </row>
+    <row r="17" spans="1:35" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G17" s="8"/>
+      <c r="H17" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="J17" s="8"/>
+      <c r="K17" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="L17" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="M17" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="N17" s="11"/>
+      <c r="O17" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="P17" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q17" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="R17" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="S17" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="T17" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="U17" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="V17" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="W17" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="X17" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y17" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z17" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA17" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB17" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC17" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="AD17" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE17" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF17" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG17" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH17" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="AI17" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="28">
+  <mergeCells count="56">
+    <mergeCell ref="Z10:Z17"/>
+    <mergeCell ref="AA10:AA17"/>
+    <mergeCell ref="AB10:AB17"/>
+    <mergeCell ref="U10:U17"/>
+    <mergeCell ref="V10:V17"/>
+    <mergeCell ref="W10:W17"/>
+    <mergeCell ref="X10:X17"/>
+    <mergeCell ref="Y10:Y17"/>
+    <mergeCell ref="P10:P17"/>
+    <mergeCell ref="Q10:Q17"/>
+    <mergeCell ref="R10:R17"/>
+    <mergeCell ref="S10:S17"/>
+    <mergeCell ref="T10:T17"/>
+    <mergeCell ref="K10:K17"/>
+    <mergeCell ref="L10:L17"/>
+    <mergeCell ref="M10:M17"/>
+    <mergeCell ref="N10:N17"/>
+    <mergeCell ref="O10:O17"/>
+    <mergeCell ref="F10:F17"/>
+    <mergeCell ref="G10:G17"/>
+    <mergeCell ref="H10:H17"/>
+    <mergeCell ref="I10:I17"/>
+    <mergeCell ref="J10:J17"/>
+    <mergeCell ref="A10:A17"/>
+    <mergeCell ref="B10:B17"/>
+    <mergeCell ref="C10:C17"/>
+    <mergeCell ref="D10:D17"/>
+    <mergeCell ref="E10:E17"/>
     <mergeCell ref="X2:X9"/>
     <mergeCell ref="Y2:Y9"/>
     <mergeCell ref="Z2:Z9"/>
